--- a/tut05/output/0501EE31.xlsx
+++ b/tut05/output/0501EE31.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.551020408163266</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>8.5</v>
       </c>
       <c r="D6" t="n">
-        <v>8.760869565217391</v>
+        <v>8.76</v>
       </c>
       <c r="E6" t="n">
-        <v>7.956521739130435</v>
+        <v>7.96</v>
       </c>
       <c r="F6" t="n">
-        <v>8.846153846153847</v>
+        <v>8.85</v>
       </c>
       <c r="G6" t="n">
         <v>7.95</v>
       </c>
       <c r="H6" t="n">
-        <v>8.976744186046512</v>
+        <v>8.98</v>
       </c>
       <c r="I6" t="n">
-        <v>8.578947368421053</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.551020408163266</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.526881720430108</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.60431654676259</v>
+        <v>8.6</v>
       </c>
       <c r="E8" t="n">
-        <v>8.443243243243243</v>
+        <v>8.44</v>
       </c>
       <c r="F8" t="n">
-        <v>8.513392857142858</v>
+        <v>8.51</v>
       </c>
       <c r="G8" t="n">
-        <v>8.428030303030303</v>
+        <v>8.43</v>
       </c>
       <c r="H8" t="n">
-        <v>8.504885993485342</v>
+        <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8.513043478260869</v>
+        <v>8.51</v>
       </c>
     </row>
   </sheetData>
